--- a/regionseng/9/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/9/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P14"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,7 +537,7 @@
     <col min="2" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.25" customHeight="1">
+    <row r="1" spans="1:18" ht="26.25" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -571,7 +571,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -618,8 +618,14 @@
       <c r="P3" s="19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="19">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="19">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -668,8 +674,14 @@
       <c r="P4" s="6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="6">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="R4" s="6">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -718,8 +730,14 @@
       <c r="P5" s="5">
         <v>34.200000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="5">
+        <v>76.8</v>
+      </c>
+      <c r="R5" s="5">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -768,8 +786,14 @@
       <c r="P6" s="7">
         <v>1024</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="7">
+        <v>1318</v>
+      </c>
+      <c r="R6" s="7">
+        <v>1511.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -818,8 +842,14 @@
       <c r="P7" s="7">
         <v>1009</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="7">
+        <v>1309</v>
+      </c>
+      <c r="R7" s="7">
+        <v>1468.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -868,8 +898,14 @@
       <c r="P8" s="5">
         <v>1016</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="5">
+        <v>1237.2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1495.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -918,8 +954,14 @@
       <c r="P9" s="5">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="5">
+        <v>45.8</v>
+      </c>
+      <c r="R9" s="5">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
@@ -968,8 +1010,14 @@
       <c r="P10" s="5">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="R10" s="5">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
@@ -1018,8 +1066,14 @@
       <c r="P11" s="5">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="R11" s="5">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1068,8 +1122,14 @@
       <c r="P12" s="5">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="5">
+        <v>23.5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
@@ -1118,8 +1178,14 @@
       <c r="P13" s="5">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="R13" s="5">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -1168,8 +1234,14 @@
       <c r="P14" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1185,7 +1257,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>

--- a/regionseng/9/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/9/hotels and restaurants/hotels and restaurants.xlsx
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,7 +537,7 @@
     <col min="2" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="26.25" customHeight="1">
+    <row r="1" spans="1:19" ht="26.25" customHeight="1">
       <c r="A1" s="20" t="s">
         <v>4</v>
       </c>
@@ -555,7 +555,7 @@
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -571,7 +571,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4"/>
       <c r="B3" s="17">
         <v>2006</v>
@@ -624,8 +624,11 @@
       <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
@@ -680,8 +683,11 @@
       <c r="R4" s="6">
         <v>95.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" s="6">
+        <v>130.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -736,8 +742,11 @@
       <c r="R5" s="5">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" s="5">
+        <v>131.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
@@ -792,8 +801,11 @@
       <c r="R6" s="7">
         <v>1511.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" s="7">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
@@ -848,8 +860,11 @@
       <c r="R7" s="7">
         <v>1468.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="7">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="14" t="s">
         <v>15</v>
       </c>
@@ -904,8 +919,11 @@
       <c r="R8" s="5">
         <v>1495.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" s="5">
+        <v>1496.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
@@ -960,8 +978,11 @@
       <c r="R9" s="5">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" s="5">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
@@ -1016,8 +1037,11 @@
       <c r="R10" s="5">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" s="5">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
@@ -1072,8 +1096,11 @@
       <c r="R11" s="5">
         <v>42.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" s="5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
@@ -1128,8 +1155,11 @@
       <c r="R12" s="5">
         <v>33.700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" s="5">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
@@ -1184,8 +1214,11 @@
       <c r="R13" s="5">
         <v>52.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="5">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="15" t="s">
         <v>13</v>
       </c>
@@ -1240,8 +1273,11 @@
       <c r="R14" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" s="8">
+        <v>0.15670000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="10"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1257,7 +1293,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="12" t="s">
         <v>2</v>
       </c>
